--- a/Quarterly MR score report.xlsx
+++ b/Quarterly MR score report.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="150">
   <si>
     <t>考核项目</t>
   </si>
@@ -723,28 +723,37 @@
     <t>推广资料使用</t>
   </si>
   <si>
-    <t>徐鹏</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>76040108</t>
-  </si>
-  <si>
-    <t>文静</t>
-  </si>
-  <si>
-    <t>崔志刚</t>
-  </si>
-  <si>
-    <t>重庆</t>
-  </si>
-  <si>
-    <t>74040604</t>
-  </si>
-  <si>
-    <t>刘晶晶</t>
+    <t>76030116</t>
+  </si>
+  <si>
+    <t>黄颖欣</t>
+  </si>
+  <si>
+    <t>75030404</t>
+  </si>
+  <si>
+    <t>李云</t>
+  </si>
+  <si>
+    <t>7503</t>
+  </si>
+  <si>
+    <t>张路</t>
+  </si>
+  <si>
+    <t>vacant</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>梁美婵</t>
+  </si>
+  <si>
+    <t>中山</t>
+  </si>
+  <si>
+    <t>朱文飞</t>
   </si>
 </sst>
 </file>
@@ -892,7 +901,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1159,6 +1168,33 @@
     <border>
       <right style="thin"/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -1169,7 +1205,7 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="160">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,9 +1513,36 @@
     <xf applyBorder="true" borderId="34" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
     <xf applyBorder="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true"/>
+    <xf applyBorder="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" borderId="36" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" borderId="37" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" borderId="38" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" borderId="39" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" borderId="40" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" borderId="41" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" borderId="42" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" borderId="43" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="true"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1762,7 +1825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="F6" xSplit="4" ySplit="5"/>
@@ -2082,371 +2145,79 @@
       <c r="AX5" s="71"/>
       <c r="AY5" s="66"/>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F6" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H6" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J6" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L6" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N6" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P6" t="n" s="132">
-        <v>3.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R6" t="n" s="132">
-        <v>0.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T6" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="U6" t="n" s="131">
-        <v>1.850000038743019</v>
-      </c>
-      <c r="V6" t="n" s="132">
-        <v>3.5500000827014446</v>
-      </c>
-      <c r="W6" t="n" s="131">
-        <v>0.0</v>
-      </c>
-      <c r="X6" t="n" s="131">
-        <v>3.0</v>
-      </c>
-      <c r="Y6" t="n" s="131">
-        <v>6.0</v>
-      </c>
-      <c r="Z6" t="n" s="131">
-        <v>6.0</v>
-      </c>
-      <c r="AA6" t="n" s="131">
-        <v>6.0</v>
-      </c>
-      <c r="AB6" t="n" s="132">
-        <v>3.2999999944120644</v>
-      </c>
-      <c r="AC6" t="n" s="131">
-        <v>0.0</v>
-      </c>
-      <c r="AD6" t="n" s="131">
-        <v>3.375</v>
-      </c>
-      <c r="AE6" t="n" s="90">
-        <v>6.0</v>
-      </c>
-      <c r="AI6" t="n" s="132">
-        <v>4.40625</v>
-      </c>
-      <c r="AJ6" t="n" s="131">
-        <v>6.0</v>
-      </c>
-      <c r="AK6" t="n" s="131">
-        <v>0.0</v>
-      </c>
-      <c r="AL6" t="n" s="131">
-        <v>2.25</v>
-      </c>
-      <c r="AM6" t="n" s="131">
-        <v>2.25</v>
-      </c>
-      <c r="AN6" t="n" s="131">
-        <v>6.0</v>
-      </c>
-      <c r="AO6" t="n" s="131">
-        <v>0.75</v>
-      </c>
-      <c r="AP6" t="n" s="131">
-        <v>6.0</v>
-      </c>
-      <c r="AQ6" t="n" s="131">
-        <v>6.0</v>
-      </c>
-      <c r="AR6" t="n" s="132">
-        <v>4.125</v>
-      </c>
-      <c r="AS6" t="n" s="131">
-        <v>4.5</v>
-      </c>
-      <c r="AT6" t="n" s="131">
-        <v>0.75</v>
-      </c>
-      <c r="AU6" t="n" s="131">
-        <v>0.0</v>
-      </c>
-      <c r="AV6" t="n" s="131">
-        <v>6.0</v>
-      </c>
-      <c r="AW6" t="n" s="132">
-        <v>4.125</v>
-      </c>
-      <c r="AX6" t="n" s="132">
-        <v>3.950624922872521</v>
-      </c>
-      <c r="AY6" t="n" s="132">
-        <v>9.350625044316985</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F7" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H7" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J7" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L7" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N7" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P7" t="n" s="132">
-        <v>4.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R7" t="n" s="132">
-        <v>3.25</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T7" t="n" s="132">
-        <v>3.75</v>
-      </c>
-      <c r="U7" t="n" s="131">
-        <v>1.850000038743019</v>
-      </c>
-      <c r="V7" t="n" s="132">
-        <v>3.900000087916851</v>
-      </c>
-      <c r="W7" t="n" s="131">
-        <v>1.5</v>
-      </c>
-      <c r="X7" t="n" s="131">
-        <v>4.5</v>
-      </c>
-      <c r="Y7" t="n" s="131">
-        <v>5.625</v>
-      </c>
-      <c r="Z7" t="n" s="131">
-        <v>6.0</v>
-      </c>
-      <c r="AA7" t="n" s="131">
-        <v>6.0</v>
-      </c>
-      <c r="AB7" t="n" s="132">
-        <v>4.31250000349246</v>
-      </c>
-      <c r="AC7" t="n" s="131">
-        <v>4.5</v>
-      </c>
-      <c r="AD7" t="n" s="131">
-        <v>3.75</v>
-      </c>
-      <c r="AE7" t="n" s="90">
-        <v>6.0</v>
-      </c>
-      <c r="AI7" t="n" s="132">
-        <v>5.3625</v>
-      </c>
-      <c r="AJ7" t="n" s="131">
-        <v>3.0</v>
-      </c>
-      <c r="AK7" t="n" s="131">
-        <v>1.5</v>
-      </c>
-      <c r="AL7" t="n" s="131">
-        <v>1.5</v>
-      </c>
-      <c r="AM7" t="n" s="131">
-        <v>3.75</v>
-      </c>
-      <c r="AN7" t="n" s="131">
-        <v>5.25</v>
-      </c>
-      <c r="AO7" t="n" s="131">
-        <v>4.875</v>
-      </c>
-      <c r="AP7" t="n" s="131">
-        <v>6.0</v>
-      </c>
-      <c r="AQ7" t="n" s="131">
-        <v>5.625</v>
-      </c>
-      <c r="AR7" t="n" s="132">
-        <v>4.35</v>
-      </c>
-      <c r="AS7" t="n" s="131">
-        <v>3.75</v>
-      </c>
-      <c r="AT7" t="n" s="131">
-        <v>0.75</v>
-      </c>
-      <c r="AU7" t="n" s="131">
-        <v>4.875</v>
-      </c>
-      <c r="AV7" t="n" s="131">
-        <v>4.875</v>
-      </c>
-      <c r="AW7" t="n" s="132">
-        <v>4.35</v>
-      </c>
-      <c r="AX7" t="n" s="132">
-        <v>4.541249915258959</v>
-      </c>
-      <c r="AY7" t="n" s="132">
-        <v>10.291250041918829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="C9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:AY5"/>
@@ -2467,8 +2238,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="M2:N3"/>
-    <mergeCell ref="AE6:AH6"/>
-    <mergeCell ref="AE7:AH7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
